--- a/data/datasets/datasets_excel/summaries.xlsx
+++ b/data/datasets/datasets_excel/summaries.xlsx
@@ -468,76 +468,76 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>chimpanzee</t>
+          <t>jelly_fish</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.05128205128205128</v>
+        <v>-0.9030501089324621</v>
       </c>
       <c r="C2" t="n">
-        <v>1.844646659393277</v>
+        <v>1.628992150575906</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5213675213675214</v>
+        <v>0.3039215686274508</v>
       </c>
       <c r="E2" t="n">
-        <v>0.4472150133453772</v>
+        <v>0.3823992951500474</v>
       </c>
       <c r="F2" t="n">
-        <v>0.8076923076923076</v>
+        <v>0.7222222222222219</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2174728626827139</v>
+        <v>0.2378547756418869</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>jelly_fish</t>
+          <t>human</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.8717948717948716</v>
+        <v>1.48474945533769</v>
       </c>
       <c r="C3" t="n">
-        <v>1.586079513831589</v>
+        <v>1.503012583332074</v>
       </c>
       <c r="D3" t="n">
-        <v>0.3098290598290598</v>
+        <v>0.8115468409586051</v>
       </c>
       <c r="E3" t="n">
-        <v>0.3649099572299556</v>
+        <v>0.2988972291015007</v>
       </c>
       <c r="F3" t="n">
-        <v>0.7158119658119658</v>
+        <v>0.8932461873638337</v>
       </c>
       <c r="G3" t="n">
-        <v>0.2196377494765063</v>
+        <v>0.1640977446765478</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>autonomous_car</t>
+          <t>artificial_intelligence</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.1688034188034188</v>
+        <v>0.7919389978213505</v>
       </c>
       <c r="C4" t="n">
-        <v>1.821024320451263</v>
+        <v>1.734501285155543</v>
       </c>
       <c r="D4" t="n">
-        <v>0.4743589743589742</v>
+        <v>0.6949891067538124</v>
       </c>
       <c r="E4" t="n">
-        <v>0.4553226741428134</v>
+        <v>0.3992743623905806</v>
       </c>
       <c r="F4" t="n">
-        <v>0.7649572649572648</v>
+        <v>0.8366013071895422</v>
       </c>
       <c r="G4" t="n">
-        <v>0.2148830262364544</v>
+        <v>0.1969996133386044</v>
       </c>
     </row>
     <row r="5">
@@ -547,47 +547,47 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.1217948717948717</v>
+        <v>-0.06862745098039212</v>
       </c>
       <c r="C5" t="n">
-        <v>1.780110439687298</v>
+        <v>1.691945190725257</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4807692307692307</v>
+        <v>0.4880174291938998</v>
       </c>
       <c r="E5" t="n">
-        <v>0.4657556568168924</v>
+        <v>0.433659173151649</v>
       </c>
       <c r="F5" t="n">
-        <v>0.7350427350427353</v>
+        <v>0.7222222222222219</v>
       </c>
       <c r="G5" t="n">
-        <v>0.2225238661644482</v>
+        <v>0.247182385736447</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>human</t>
+          <t>rock</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.715811965811966</v>
+        <v>-1.784313725490196</v>
       </c>
       <c r="C6" t="n">
-        <v>1.304238433909963</v>
+        <v>1.061893690555853</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8589743589743587</v>
+        <v>0.1045751633986928</v>
       </c>
       <c r="E6" t="n">
-        <v>0.2441325955709156</v>
+        <v>0.1858698938927843</v>
       </c>
       <c r="F6" t="n">
-        <v>0.8846153846153844</v>
+        <v>0.7091503267973855</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1418647732484953</v>
+        <v>0.2362268881065084</v>
       </c>
     </row>
     <row r="7">
@@ -597,97 +597,97 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.02991452991452991</v>
+        <v>-0.007625272331154696</v>
       </c>
       <c r="C7" t="n">
-        <v>1.898124611253817</v>
+        <v>1.965638185377762</v>
       </c>
       <c r="D7" t="n">
-        <v>0.5021367521367521</v>
+        <v>0.5087145969498911</v>
       </c>
       <c r="E7" t="n">
-        <v>0.4868430684063476</v>
+        <v>0.4897020183826084</v>
       </c>
       <c r="F7" t="n">
-        <v>0.797008547008547</v>
+        <v>0.8246187363834419</v>
       </c>
       <c r="G7" t="n">
-        <v>0.2169527419770461</v>
+        <v>0.2223643927639666</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>rock</t>
+          <t>chimpanzee</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-1.876068376068376</v>
+        <v>-0.07516339869281041</v>
       </c>
       <c r="C8" t="n">
-        <v>1.008636692420513</v>
+        <v>1.830781364162112</v>
       </c>
       <c r="D8" t="n">
-        <v>0.08547008547008544</v>
+        <v>0.4891067538126363</v>
       </c>
       <c r="E8" t="n">
-        <v>0.1605754217735966</v>
+        <v>0.4459258322329493</v>
       </c>
       <c r="F8" t="n">
-        <v>0.7243589743589743</v>
+        <v>0.8071895424836599</v>
       </c>
       <c r="G8" t="n">
-        <v>0.242487829482791</v>
+        <v>0.2391265658422698</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>artificial_intelligence</t>
+          <t>god</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.5491452991452991</v>
+        <v>0.5413943355119827</v>
       </c>
       <c r="C9" t="n">
-        <v>1.790014050887789</v>
+        <v>1.196495602608616</v>
       </c>
       <c r="D9" t="n">
-        <v>0.6431623931623933</v>
+        <v>0.5849673202614378</v>
       </c>
       <c r="E9" t="n">
-        <v>0.4400918999003628</v>
+        <v>0.2839371653744575</v>
       </c>
       <c r="F9" t="n">
-        <v>0.8205128205128205</v>
+        <v>0.7352941176470589</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1866413970670894</v>
+        <v>0.244385234253637</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>god</t>
+          <t>autonomous_car</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.5683760683760686</v>
+        <v>-0.1296296296296296</v>
       </c>
       <c r="C10" t="n">
-        <v>1.275333962801254</v>
+        <v>1.869349858847098</v>
       </c>
       <c r="D10" t="n">
-        <v>0.5961538461538463</v>
+        <v>0.4814814814814817</v>
       </c>
       <c r="E10" t="n">
-        <v>0.288718877283108</v>
+        <v>0.4604522767071556</v>
       </c>
       <c r="F10" t="n">
-        <v>0.7329059829059831</v>
+        <v>0.7755991285403049</v>
       </c>
       <c r="G10" t="n">
-        <v>0.2303777794743476</v>
+        <v>0.2345437723102044</v>
       </c>
     </row>
     <row r="11">
@@ -697,22 +697,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.1837606837606837</v>
+        <v>0.1503267973856209</v>
       </c>
       <c r="C11" t="n">
-        <v>1.876812300045073</v>
+        <v>1.937350214768323</v>
       </c>
       <c r="D11" t="n">
-        <v>0.5277777777777778</v>
+        <v>0.5326797385620914</v>
       </c>
       <c r="E11" t="n">
-        <v>0.4587193415656875</v>
+        <v>0.4673455423386851</v>
       </c>
       <c r="F11" t="n">
-        <v>0.7905982905982906</v>
+        <v>0.812636165577342</v>
       </c>
       <c r="G11" t="n">
-        <v>0.2385602742721691</v>
+        <v>0.2277911835984891</v>
       </c>
     </row>
   </sheetData>
